--- a/Rise_of_Derma_Maptool/MatrixPlanner.xlsx
+++ b/Rise_of_Derma_Maptool/MatrixPlanner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tihanyi Marcell\source\repos\TMarccci\TiKiSz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TiKiSz\Rise_of_Derma_Maptool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B03CFC-A74B-485D-85F7-3A5F8054A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1ED006-9136-461E-A756-D9F8288DBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F78ECD2A-70BC-42C7-9198-2B819B669CB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78ECD2A-70BC-42C7-9198-2B819B669CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="4">
   <si>
     <t>@</t>
   </si>
@@ -436,7 +436,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -598,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB7181F-D061-447D-867A-7C6BB8350BB8}">
   <dimension ref="A1:CC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU21" sqref="AU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,9 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
+      <c r="AN2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO2" s="6"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="2"/>
@@ -1061,17 +1063,15 @@
       <c r="AX2" s="2"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="4"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
-      <c r="BI2" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BI2" s="2"/>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
@@ -1149,7 +1149,9 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
+      <c r="AN3" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO3" s="6"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="2"/>
@@ -1162,17 +1164,15 @@
       <c r="AX3" s="2"/>
       <c r="AY3" s="6"/>
       <c r="AZ3" s="4"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
-      <c r="BI3" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BI3" s="2"/>
       <c r="BJ3" s="4"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
@@ -1250,34 +1250,66 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
+      <c r="AN4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO4" s="6"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="2"/>
-      <c r="AR4" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
+      <c r="AU4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="2"/>
+      <c r="BJ4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BL4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1317,15 +1349,9 @@
       <c r="BX4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BY4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
     </row>
@@ -1379,36 +1405,36 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
+      <c r="AN5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO5" s="6"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="2"/>
-      <c r="AR5" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
+      <c r="AU5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="19" t="s">
-        <v>0</v>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="22">
+        <v>6</v>
       </c>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
@@ -1421,12 +1447,12 @@
       <c r="BU5" s="2"/>
       <c r="BV5" s="2"/>
       <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
+      <c r="BX5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
-      <c r="CA5" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
     </row>
@@ -1492,43 +1518,37 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
+      <c r="AN6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO6" s="6"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AQ6" s="22">
+        <v>6</v>
+      </c>
+      <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
+      <c r="AU6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
       <c r="BO6" s="2"/>
@@ -1537,17 +1557,15 @@
       <c r="BR6" s="2"/>
       <c r="BS6" s="6"/>
       <c r="BT6" s="4"/>
-      <c r="BU6" s="22">
-        <v>6</v>
-      </c>
+      <c r="BU6" s="2"/>
       <c r="BV6" s="2"/>
       <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
+      <c r="BX6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY6" s="2"/>
       <c r="BZ6" s="2"/>
-      <c r="CA6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA6" s="2"/>
       <c r="CB6" s="2"/>
       <c r="CC6" s="2"/>
     </row>
@@ -1597,43 +1615,63 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
+      <c r="AN7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO7" s="6"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="2"/>
-      <c r="AR7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
+      <c r="AU7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="6"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BC7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
+      <c r="BD7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="2"/>
+      <c r="BJ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BL7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
+      <c r="BM7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO7" s="19" t="s">
         <v>0</v>
       </c>
@@ -1646,29 +1684,19 @@
       <c r="BR7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BS7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="30">
+        <v>6</v>
+      </c>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
       <c r="BX7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BY7" s="2"/>
       <c r="BZ7" s="2"/>
-      <c r="CA7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA7" s="2"/>
       <c r="CB7" s="2"/>
       <c r="CC7" s="2"/>
     </row>
@@ -1728,51 +1756,45 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
+      <c r="AN8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO8" s="6"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="2"/>
-      <c r="AR8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
+      <c r="AU8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="6"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="22">
-        <v>6</v>
-      </c>
-      <c r="BL8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
       <c r="BM8" s="2"/>
       <c r="BN8" s="2"/>
-      <c r="BO8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO8" s="2"/>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
+      <c r="BR8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BS8" s="6"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="2"/>
@@ -1783,13 +1805,11 @@
       </c>
       <c r="BY8" s="2"/>
       <c r="BZ8" s="2"/>
-      <c r="CA8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA8" s="2"/>
       <c r="CB8" s="2"/>
       <c r="CC8" s="2"/>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1845,49 +1865,47 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
+      <c r="AN9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO9" s="6"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
+      <c r="AU9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="29">
+        <v>7</v>
+      </c>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="6"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
       <c r="BM9" s="2"/>
       <c r="BN9" s="2"/>
-      <c r="BO9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
-      <c r="BQ9" s="22">
-        <v>7</v>
-      </c>
-      <c r="BR9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BS9" s="6"/>
       <c r="BT9" s="4"/>
       <c r="BU9" s="2"/>
@@ -1898,9 +1916,7 @@
       </c>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
-      <c r="CA9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA9" s="2"/>
       <c r="CB9" s="2"/>
       <c r="CC9" s="2"/>
     </row>
@@ -1956,58 +1972,60 @@
         <v>0</v>
       </c>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
+      <c r="AN10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO10" s="15"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
-      <c r="AS10" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
+      <c r="AU10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="6"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="2"/>
+      <c r="BJ10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BL10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BM10" s="2"/>
       <c r="BN10" s="2"/>
-      <c r="BO10" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
       <c r="BQ10" s="2"/>
       <c r="BR10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BS10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
       <c r="BW10" s="2"/>
       <c r="BX10" s="19" t="s">
@@ -2015,9 +2033,7 @@
       </c>
       <c r="BY10" s="2"/>
       <c r="BZ10" s="2"/>
-      <c r="CA10" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA10" s="2"/>
       <c r="CB10" s="2"/>
       <c r="CC10" s="2"/>
     </row>
@@ -2069,64 +2085,62 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
-      <c r="AN11" s="13"/>
+      <c r="AN11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
       <c r="AX11" s="10"/>
       <c r="AY11" s="11"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="BL11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="29">
-        <v>7</v>
-      </c>
-      <c r="BO11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
       <c r="BR11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="10"/>
-      <c r="BW11" s="10"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
       <c r="BX11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BY11" s="10"/>
-      <c r="BZ11" s="10"/>
-      <c r="CA11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
       <c r="CB11" s="10"/>
       <c r="CC11" s="29">
         <v>5</v>
@@ -2174,62 +2188,60 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="14"/>
+      <c r="AN12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="8"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="2"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="30">
+        <v>8</v>
+      </c>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
       <c r="BL12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BM12" s="2"/>
       <c r="BN12" s="2"/>
-      <c r="BO12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
       <c r="BQ12" s="2"/>
-      <c r="BR12" s="30">
-        <v>8</v>
-      </c>
-      <c r="BS12" s="8"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV12" s="7"/>
-      <c r="BW12" s="7"/>
+      <c r="BR12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
       <c r="BX12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BY12" s="30">
-        <v>6</v>
-      </c>
-      <c r="BZ12" s="7"/>
-      <c r="CA12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
       <c r="CB12" s="7"/>
       <c r="CC12" s="7"/>
     </row>
@@ -2275,58 +2287,70 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
+      <c r="AN13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO13" s="8"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
+      <c r="AU13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
+      <c r="AY13" s="22">
+        <v>7</v>
+      </c>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="2"/>
+      <c r="BJ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BL13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BM13" s="2"/>
       <c r="BN13" s="2"/>
-      <c r="BO13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
       <c r="BR13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BS13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
       <c r="BX13" s="19" t="s">
@@ -2334,9 +2358,7 @@
       </c>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
-      <c r="CA13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA13" s="2"/>
       <c r="CB13" s="2"/>
       <c r="CC13" s="2"/>
     </row>
@@ -2440,45 +2462,45 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
+      <c r="AN14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO14" s="6"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
+      <c r="AU14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="6"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
       <c r="BM14" s="2"/>
       <c r="BN14" s="2"/>
       <c r="BO14" s="2"/>
       <c r="BP14" s="2"/>
       <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
+      <c r="BR14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BS14" s="6"/>
-      <c r="BT14" s="25">
-        <v>7</v>
-      </c>
+      <c r="BT14" s="4"/>
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
@@ -2487,9 +2509,7 @@
       </c>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
-      <c r="CA14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
       <c r="CC14" s="2"/>
     </row>
@@ -2541,47 +2561,45 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
+      <c r="AN15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO15" s="6"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AV15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="6"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="25">
+        <v>7</v>
+      </c>
+      <c r="BL15" s="6"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
       <c r="BQ15" s="2"/>
-      <c r="BR15" s="2"/>
+      <c r="BR15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BS15" s="6"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="2"/>
@@ -2592,9 +2610,7 @@
       </c>
       <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
-      <c r="CA15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
       <c r="CC15" s="2"/>
     </row>
@@ -2648,15 +2664,15 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
+      <c r="AN16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO16" s="6"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT16" s="2"/>
       <c r="AU16" s="19" t="s">
         <v>0</v>
       </c>
@@ -2666,24 +2682,48 @@
       <c r="AW16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
+      <c r="AX16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BJ16" s="25">
-        <v>6</v>
-      </c>
-      <c r="BK16" s="2"/>
+      <c r="BJ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BL16" s="19" t="s">
         <v>0</v>
       </c>
@@ -2705,29 +2745,17 @@
       <c r="BR16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BS16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+      <c r="BW16" s="2"/>
       <c r="BX16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
-      <c r="CA16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
       <c r="CC16" s="2"/>
     </row>
@@ -2787,11 +2815,15 @@
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
+      <c r="AN17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO17" s="6"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
+      <c r="AR17" s="25">
+        <v>6</v>
+      </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
@@ -2799,21 +2831,19 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="6"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
       <c r="BM17" s="2"/>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
@@ -2825,12 +2855,12 @@
       <c r="BU17" s="2"/>
       <c r="BV17" s="2"/>
       <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
+      <c r="BX17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
-      <c r="CA17" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
     </row>
@@ -2890,7 +2920,9 @@
       </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
+      <c r="AN18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AO18" s="6"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="2"/>
@@ -2902,31 +2934,19 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
       <c r="AY18" s="6"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
       <c r="BM18" s="2"/>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
@@ -2940,12 +2960,12 @@
       </c>
       <c r="BV18" s="2"/>
       <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
+      <c r="BX18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY18" s="2"/>
       <c r="BZ18" s="2"/>
-      <c r="CA18" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
     </row>
@@ -3007,19 +3027,45 @@
       </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="4"/>
+      <c r="AN19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA19" s="19" t="s">
         <v>0</v>
       </c>
@@ -3035,9 +3081,15 @@
       <c r="BE19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
+      <c r="BF19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BI19" s="19" t="s">
         <v>0</v>
       </c>
@@ -3086,15 +3138,9 @@
       <c r="BX19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BY19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA19" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
       <c r="CB19" s="2"/>
       <c r="CC19" s="2"/>
     </row>
@@ -3167,7 +3213,7 @@
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
-      <c r="BI20" s="6"/>
+      <c r="BI20" s="2"/>
       <c r="BJ20" s="4"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>

--- a/Rise_of_Derma_Maptool/MatrixPlanner.xlsx
+++ b/Rise_of_Derma_Maptool/MatrixPlanner.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TiKiSz\Rise_of_Derma_Maptool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1ED006-9136-461E-A756-D9F8288DBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CED303-599E-47B3-A70C-B389B7FA02F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78ECD2A-70BC-42C7-9198-2B819B669CB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Map" sheetId="2" r:id="rId1"/>
-    <sheet name="Map (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Map (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Map (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Map (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="5">
   <si>
     <t>@</t>
   </si>
@@ -40,12 +40,15 @@
   <si>
     <t>K</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +63,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +129,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,22 +444,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,11 +784,2985 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A0960-C1C8-43EE-9D5F-766E7C363F3A}">
+  <dimension ref="A1:CC21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="81" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="5">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="5">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+    </row>
+    <row r="10" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+    </row>
+    <row r="11" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="12"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="10"/>
+      <c r="BY11" s="10"/>
+      <c r="BZ11" s="10"/>
+      <c r="CA11" s="10"/>
+      <c r="CB11" s="10"/>
+      <c r="CC11" s="10"/>
+    </row>
+    <row r="12" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7"/>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="6"/>
+      <c r="BT14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="2"/>
+      <c r="BX15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="2"/>
+      <c r="BZ15" s="2"/>
+      <c r="CA15" s="2"/>
+      <c r="CB15" s="2"/>
+      <c r="CC15" s="2"/>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="6"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+      <c r="BW16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
+      <c r="BZ16" s="2"/>
+      <c r="CA16" s="2"/>
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="6"/>
+      <c r="BT18" s="6"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+    </row>
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="6"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+    </row>
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+    </row>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB7181F-D061-447D-867A-7C6BB8350BB8}">
   <dimension ref="A1:CC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU21" sqref="AU21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,12 +6345,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E033449-FA40-4BB3-A884-BD3240605047}">
   <dimension ref="A1:CC21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="Y31" sqref="Y31:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +6622,9 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="6"/>
       <c r="V2" s="4"/>
@@ -3628,9 +6641,13 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
+      <c r="AJ2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AL2" s="22">
+        <v>5</v>
+      </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="6"/>
@@ -3643,24 +6660,30 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="4"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
+      <c r="BF2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
-      <c r="BI2" s="6"/>
+      <c r="BI2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
+      <c r="BP2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ2" s="2"/>
       <c r="BR2" s="2"/>
       <c r="BS2" s="6"/>
@@ -3670,7 +6693,9 @@
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
+      <c r="BZ2" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
@@ -3680,13 +6705,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="22">
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="6"/>
       <c r="L3" s="4"/>
@@ -3696,24 +6725,34 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="22">
+        <v>5</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="6"/>
       <c r="V3" s="4"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="22">
+        <v>5</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="4"/>
+      <c r="AF3" s="22">
+        <v>5</v>
+      </c>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AJ3" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -3723,41 +6762,57 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
+      <c r="AT3" s="22">
+        <v>5</v>
+      </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="4"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
+      <c r="BD3" s="22">
+        <v>5</v>
+      </c>
       <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
+      <c r="BF3" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
-      <c r="BI3" s="6"/>
+      <c r="BI3" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ3" s="4"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
+      <c r="BP3" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ3" s="2"/>
       <c r="BR3" s="2"/>
-      <c r="BS3" s="6"/>
+      <c r="BS3" s="22">
+        <v>5</v>
+      </c>
       <c r="BT3" s="4"/>
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="2"/>
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
+      <c r="BZ3" s="22">
+        <v>7</v>
+      </c>
       <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
+      <c r="CB3" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="CC3" s="2"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -3781,10 +6836,12 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -3793,44 +6850,84 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="4"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AJ4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
+      <c r="AM4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX4" s="2"/>
       <c r="AY4" s="6"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
+      <c r="AZ4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
+      <c r="BF4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
-      <c r="BI4" s="6"/>
+      <c r="BI4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
+      <c r="BL4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BM4" s="2"/>
       <c r="BN4" s="2"/>
       <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
+      <c r="BP4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2"/>
       <c r="BS4" s="6"/>
@@ -3840,7 +6937,9 @@
       <c r="BW4" s="2"/>
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
+      <c r="BZ4" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
@@ -3851,45 +6950,107 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="R5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="AM5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="4"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -3899,36 +7060,70 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
+      <c r="BB5" s="22">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
+      <c r="BF5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="6"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
+      <c r="BL5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
       <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
+      <c r="BP5" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ5" s="2"/>
       <c r="BR5" s="2"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
+      <c r="BS5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="19" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3936,23 +7131,35 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="S6" s="2"/>
-      <c r="T6" s="31"/>
+      <c r="T6" s="22">
+        <v>5</v>
+      </c>
       <c r="U6" s="32"/>
       <c r="V6" s="33"/>
       <c r="W6" s="2"/>
@@ -3971,10 +7178,12 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
+      <c r="AM6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="4"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -3983,27 +7192,47 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
+      <c r="BC6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
+      <c r="BF6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="22">
+        <v>5</v>
+      </c>
       <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
+      <c r="BL6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ6" s="2"/>
       <c r="BR6" s="2"/>
-      <c r="BS6" s="6"/>
+      <c r="BS6" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BT6" s="4"/>
       <c r="BU6" s="2"/>
       <c r="BV6" s="2"/>
@@ -4021,25 +7250,39 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="22">
+        <v>8</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="4"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -4047,7 +7290,9 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="22">
+        <v>5</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="2"/>
@@ -4056,29 +7301,61 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="4"/>
+      <c r="AM7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
+      <c r="BC7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
-      <c r="BI7" s="6"/>
+      <c r="BI7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ7" s="4"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
@@ -4086,11 +7363,17 @@
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
+      <c r="BQ7" s="22">
+        <v>5</v>
+      </c>
       <c r="BR7" s="2"/>
-      <c r="BS7" s="6"/>
+      <c r="BS7" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BT7" s="4"/>
-      <c r="BU7" s="2"/>
+      <c r="BU7" s="22">
+        <v>1</v>
+      </c>
       <c r="BV7" s="2"/>
       <c r="BW7" s="2"/>
       <c r="BX7" s="2"/>
@@ -4106,46 +7389,94 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="Y8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN8" s="2"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="2"/>
+      <c r="AQ8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
@@ -4157,13 +7488,17 @@
       <c r="AZ8" s="4"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
+      <c r="BC8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
-      <c r="BI8" s="6"/>
+      <c r="BI8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
@@ -4173,15 +7508,29 @@
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2"/>
       <c r="BR8" s="2"/>
-      <c r="BS8" s="6"/>
+      <c r="BS8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BT8" s="4"/>
       <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
+      <c r="BV8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB8" s="2"/>
       <c r="CC8" s="2"/>
     </row>
@@ -4191,74 +7540,150 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="22">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="19"/>
+      <c r="Y9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="22">
+        <v>5</v>
+      </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="22">
+        <v>9</v>
+      </c>
+      <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="6"/>
+      <c r="AT9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BT9" s="4"/>
       <c r="BU9" s="2"/>
       <c r="BV9" s="2"/>
@@ -4266,38 +7691,58 @@
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
+      <c r="CA9" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB9" s="2"/>
       <c r="CC9" s="2"/>
     </row>
-    <row r="10" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="22">
+        <v>5</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="6"/>
+      <c r="U10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="2"/>
+      <c r="W10" s="22">
+        <v>5</v>
+      </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="19"/>
+      <c r="Y10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -4308,23 +7753,31 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="19"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="19"/>
+      <c r="AM10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="19"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
+      <c r="AT10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
+      <c r="AV10" s="7"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="6"/>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
@@ -4338,20 +7791,28 @@
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
+      <c r="BN10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
       <c r="BQ10" s="2"/>
       <c r="BR10" s="2"/>
-      <c r="BS10" s="6"/>
+      <c r="BS10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BT10" s="4"/>
       <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
+      <c r="BY10" s="22">
+        <v>1</v>
+      </c>
       <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
+      <c r="CA10" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB10" s="2"/>
       <c r="CC10" s="2"/>
     </row>
@@ -4360,83 +7821,151 @@
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L11" s="12"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="22">
+        <v>3</v>
+      </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="6"/>
+      <c r="U11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="26"/>
+      <c r="Y11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="10"/>
+      <c r="AB11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>5</v>
+      </c>
       <c r="AL11" s="10"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
+      <c r="AM11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
+      <c r="AV11" s="7"/>
       <c r="AW11" s="10"/>
       <c r="AX11" s="10"/>
       <c r="AY11" s="11"/>
-      <c r="AZ11" s="12"/>
+      <c r="AZ11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
+      <c r="BG11" s="22">
+        <v>1</v>
+      </c>
       <c r="BH11" s="10"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="10"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
+      <c r="BN11" s="22">
+        <v>4</v>
+      </c>
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="12"/>
-      <c r="BU11" s="10"/>
-      <c r="BV11" s="10"/>
-      <c r="BW11" s="10"/>
-      <c r="BX11" s="10"/>
+      <c r="BS11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY11" s="10"/>
       <c r="BZ11" s="10"/>
-      <c r="CA11" s="10"/>
+      <c r="CA11" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB11" s="10"/>
       <c r="CC11" s="10"/>
     </row>
@@ -4445,32 +7974,58 @@
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="19"/>
+      <c r="R12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="19"/>
+      <c r="AB12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="8"/>
@@ -4481,23 +8036,35 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="17"/>
+      <c r="AM12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="15"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="37"/>
+      <c r="AQ12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
+      <c r="AT12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
+      <c r="AW12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX12" s="7"/>
       <c r="AY12" s="8"/>
-      <c r="AZ12" s="9"/>
+      <c r="AZ12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA12" s="7"/>
       <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
+      <c r="BC12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
@@ -4508,7 +8075,9 @@
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
+      <c r="BN12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
       <c r="BQ12" s="2"/>
@@ -4518,31 +8087,45 @@
       <c r="BU12" s="7"/>
       <c r="BV12" s="7"/>
       <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
+      <c r="BX12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY12" s="7"/>
-      <c r="BZ12" s="7"/>
-      <c r="CA12" s="7"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB12" s="7"/>
-      <c r="CC12" s="7"/>
+      <c r="CC12" s="22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="22">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -4555,10 +8138,14 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="6"/>
+      <c r="AE13" s="22">
+        <v>5</v>
+      </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -4566,47 +8153,89 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="19"/>
+      <c r="AM13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
+      <c r="AT13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
+      <c r="AW13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX13" s="2"/>
       <c r="AY13" s="6"/>
-      <c r="AZ13" s="4"/>
+      <c r="AZ13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
+      <c r="BC13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
+      <c r="BI13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ13" s="2"/>
       <c r="BR13" s="2"/>
-      <c r="BS13" s="6"/>
+      <c r="BS13" s="22">
+        <v>4</v>
+      </c>
       <c r="BT13" s="4"/>
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
+      <c r="BX13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
+      <c r="CA13" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB13" s="2"/>
       <c r="CC13" s="2"/>
     </row>
@@ -4616,10 +8245,14 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -4627,7 +8260,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -4635,39 +8270,73 @@
       <c r="T14" s="2"/>
       <c r="U14" s="6"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="2"/>
+      <c r="W14" s="22">
+        <v>5</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="19"/>
+      <c r="AB14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
+      <c r="AE14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="4"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
+      <c r="AQ14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
+      <c r="AT14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
+      <c r="AW14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="4"/>
+      <c r="AY14" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
+      <c r="BC14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
@@ -4678,20 +8347,30 @@
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
+      <c r="BN14" s="22">
+        <v>1</v>
+      </c>
       <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
+      <c r="BP14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ14" s="2"/>
       <c r="BR14" s="2"/>
       <c r="BS14" s="6"/>
       <c r="BT14" s="4"/>
-      <c r="BU14" s="2"/>
+      <c r="BU14" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
+      <c r="BX14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
+      <c r="CA14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB14" s="2"/>
       <c r="CC14" s="2"/>
     </row>
@@ -4701,34 +8380,82 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="20"/>
+      <c r="AE15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -4736,28 +8463,42 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="19"/>
+      <c r="AM15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="6"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="2"/>
+      <c r="AQ15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
+      <c r="AT15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="6"/>
+      <c r="AV15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
+      <c r="BC15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
+      <c r="BH15" s="22">
+        <v>1</v>
+      </c>
       <c r="BI15" s="6"/>
       <c r="BJ15" s="4"/>
       <c r="BK15" s="2"/>
@@ -4765,7 +8506,9 @@
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
+      <c r="BP15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BQ15" s="2"/>
       <c r="BR15" s="2"/>
       <c r="BS15" s="6"/>
@@ -4773,10 +8516,14 @@
       <c r="BU15" s="2"/>
       <c r="BV15" s="2"/>
       <c r="BW15" s="2"/>
-      <c r="BX15" s="2"/>
+      <c r="BX15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
-      <c r="CA15" s="2"/>
+      <c r="CA15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB15" s="2"/>
       <c r="CC15" s="2"/>
     </row>
@@ -4786,7 +8533,9 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4813,55 +8562,121 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="20"/>
+      <c r="AE16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="2"/>
+      <c r="AG16" s="22">
+        <v>1</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="22"/>
+      <c r="AJ16" s="22">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="19"/>
+      <c r="AM16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN16" s="2"/>
       <c r="AO16" s="6"/>
       <c r="AP16" s="4"/>
-      <c r="AQ16" s="2"/>
+      <c r="AQ16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
+      <c r="AT16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
+      <c r="AW16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
-      <c r="BP16" s="2"/>
-      <c r="BQ16" s="2"/>
-      <c r="BR16" s="2"/>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="2"/>
-      <c r="BV16" s="2"/>
-      <c r="BW16" s="2"/>
-      <c r="BX16" s="2"/>
+      <c r="BP16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
-      <c r="CA16" s="2"/>
+      <c r="CA16" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB16" s="2"/>
       <c r="CC16" s="2"/>
     </row>
@@ -4871,13 +8686,19 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="22">
+        <v>1</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2"/>
@@ -4891,32 +8712,42 @@
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="X17" s="22">
+        <v>1</v>
+      </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="39"/>
+      <c r="AB17" s="36"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="20"/>
+      <c r="AE17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AF17" s="4"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="19"/>
+      <c r="AH17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="19"/>
+      <c r="AM17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN17" s="2"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="4"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
+      <c r="AW17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX17" s="2"/>
       <c r="AY17" s="6"/>
       <c r="AZ17" s="4"/>
@@ -4930,9 +8761,13 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="6"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="2"/>
+      <c r="BK17" s="22">
+        <v>1</v>
+      </c>
       <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
+      <c r="BM17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
@@ -4943,10 +8778,14 @@
       <c r="BU17" s="2"/>
       <c r="BV17" s="2"/>
       <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
+      <c r="BX17" s="22">
+        <v>1</v>
+      </c>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
+      <c r="CA17" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
     </row>
@@ -4956,44 +8795,102 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="20"/>
+      <c r="AE18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AF18" s="4"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="19"/>
+      <c r="AH18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="19"/>
+      <c r="AM18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN18" s="2"/>
-      <c r="AO18" s="6"/>
+      <c r="AO18" s="22">
+        <v>1</v>
+      </c>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
@@ -5001,12 +8898,16 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
+      <c r="AW18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX18" s="2"/>
       <c r="AY18" s="6"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
+      <c r="BB18" s="22">
+        <v>2</v>
+      </c>
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
@@ -5017,13 +8918,17 @@
       <c r="BJ18" s="4"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
+      <c r="BM18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
       <c r="BQ18" s="2"/>
       <c r="BR18" s="2"/>
-      <c r="BS18" s="6"/>
+      <c r="BS18" s="22">
+        <v>1</v>
+      </c>
       <c r="BT18" s="4"/>
       <c r="BU18" s="2"/>
       <c r="BV18" s="2"/>
@@ -5031,7 +8936,9 @@
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
       <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
+      <c r="CA18" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
     </row>
@@ -5052,7 +8959,9 @@
       <c r="L19" s="4"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="22">
+        <v>1</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -5065,59 +8974,139 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="19"/>
+      <c r="AB19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="20"/>
+      <c r="AE19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AF19" s="4"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="19"/>
+      <c r="AH19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
+      <c r="AK19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
+      <c r="AQ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AX19" s="2"/>
       <c r="AY19" s="6"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
+      <c r="AZ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BH19" s="2"/>
       <c r="BI19" s="6"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="4"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
+      <c r="BJ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="22">
+        <v>1</v>
+      </c>
       <c r="CC19" s="2"/>
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.25">
@@ -5125,7 +9114,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -5141,22 +9132,30 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="S20" s="22">
+        <v>1</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="19"/>
+      <c r="AB20" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="19"/>
+      <c r="AH20" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -5165,7 +9164,9 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="4"/>
-      <c r="AQ20" s="2"/>
+      <c r="AQ20" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
@@ -5176,7 +9177,9 @@
       <c r="AY20" s="6"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
+      <c r="BB20" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
@@ -5184,7 +9187,9 @@
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="6"/>
-      <c r="BJ20" s="4"/>
+      <c r="BJ20" s="22">
+        <v>1</v>
+      </c>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
@@ -5215,14 +9220,18 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="4"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -5235,13 +9244,19 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="19"/>
+      <c r="AB21" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="6"/>
+      <c r="AE21" s="22">
+        <v>1</v>
+      </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="19"/>
+      <c r="AH21" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -5250,20 +9265,30 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="2"/>
+      <c r="AQ21" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
+      <c r="AS21" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
+      <c r="AW21" s="22">
+        <v>2</v>
+      </c>
       <c r="AX21" s="2"/>
       <c r="AY21" s="6"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
+      <c r="BB21" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
+      <c r="BD21" s="22">
+        <v>2</v>
+      </c>
       <c r="BE21" s="2"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
@@ -5279,7 +9304,9 @@
       <c r="BQ21" s="2"/>
       <c r="BR21" s="2"/>
       <c r="BS21" s="6"/>
-      <c r="BT21" s="4"/>
+      <c r="BT21" s="22">
+        <v>1</v>
+      </c>
       <c r="BU21" s="2"/>
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
@@ -5291,1968 +9318,7 @@
       <c r="CC21" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A0960-C1C8-43EE-9D5F-766E7C363F3A}">
-  <dimension ref="A1:CC21"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="81" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" s="5">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="5">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="3">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="5">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="3">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="5">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="3">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="5">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="3">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-    </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="6"/>
-      <c r="BT6" s="4"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="4"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="4"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="4"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-    </row>
-    <row r="10" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="4"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-    </row>
-    <row r="11" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
-      <c r="BR11" s="10"/>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="12"/>
-      <c r="BU11" s="10"/>
-      <c r="BV11" s="10"/>
-      <c r="BW11" s="10"/>
-      <c r="BX11" s="10"/>
-      <c r="BY11" s="10"/>
-      <c r="BZ11" s="10"/>
-      <c r="CA11" s="10"/>
-      <c r="CB11" s="10"/>
-      <c r="CC11" s="10"/>
-    </row>
-    <row r="12" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="BR12" s="7"/>
-      <c r="BS12" s="8"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="7"/>
-      <c r="BV12" s="7"/>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
-      <c r="BY12" s="7"/>
-      <c r="BZ12" s="7"/>
-      <c r="CA12" s="7"/>
-      <c r="CB12" s="7"/>
-      <c r="CC12" s="7"/>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="6"/>
-      <c r="BT13" s="4"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="6"/>
-      <c r="BT14" s="4"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
-      <c r="BQ15" s="2"/>
-      <c r="BR15" s="2"/>
-      <c r="BS15" s="6"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="2"/>
-      <c r="BV15" s="2"/>
-      <c r="BW15" s="2"/>
-      <c r="BX15" s="2"/>
-      <c r="BY15" s="2"/>
-      <c r="BZ15" s="2"/>
-      <c r="CA15" s="2"/>
-      <c r="CB15" s="2"/>
-      <c r="CC15" s="2"/>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="2"/>
-      <c r="BQ16" s="2"/>
-      <c r="BR16" s="2"/>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="2"/>
-      <c r="BV16" s="2"/>
-      <c r="BW16" s="2"/>
-      <c r="BX16" s="2"/>
-      <c r="BY16" s="2"/>
-      <c r="BZ16" s="2"/>
-      <c r="CA16" s="2"/>
-      <c r="CB16" s="2"/>
-      <c r="CC16" s="2"/>
-    </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="BR17" s="2"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="4"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
-      <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
-      <c r="BY17" s="2"/>
-      <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
-      <c r="CB17" s="2"/>
-      <c r="CC17" s="2"/>
-    </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="BR18" s="2"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="4"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
-      <c r="BY18" s="2"/>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2"/>
-    </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="4"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-    </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="2"/>
-      <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2"/>
-      <c r="BO20" s="2"/>
-      <c r="BP20" s="2"/>
-      <c r="BQ20" s="2"/>
-      <c r="BR20" s="2"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="2"/>
-      <c r="BV20" s="2"/>
-      <c r="BW20" s="2"/>
-      <c r="BX20" s="2"/>
-      <c r="BY20" s="2"/>
-      <c r="BZ20" s="2"/>
-      <c r="CA20" s="2"/>
-      <c r="CB20" s="2"/>
-      <c r="CC20" s="2"/>
-    </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="4"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
